--- a/Annex B - Project-Plan.xlsx
+++ b/Annex B - Project-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleschen/Documents/research/PhD/uol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9531DC5C-5E1C-7245-8ECC-818C06C5418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDDF8B-B28A-E046-AABC-85CC8F4F65FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{727C34C2-B1ED-184A-A561-5BCCB5AE7DA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Tasks</t>
   </si>
@@ -88,6 +88,27 @@
   </si>
   <si>
     <t>Viva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litterature Review </t>
+  </si>
+  <si>
+    <t>Research Method</t>
+  </si>
+  <si>
+    <t>Examination of the RQ</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Summary of results and contribution to knowledge</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Abstract</t>
   </si>
 </sst>
 </file>
@@ -122,7 +143,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,19 +188,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A39FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF02FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,12 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -212,14 +259,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4BFF00"/>
+      <color rgb="FFDF02FF"/>
+      <color rgb="FF5A39FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -528,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826FA7AD-2B1E-364B-8C96-4D2797EFBF67}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
@@ -581,520 +652,671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="12">
         <v>2021</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12">
         <v>2022</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12">
         <v>2023</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2">
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12">
         <v>2024</v>
       </c>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="3"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="1"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="AP10" s="14"/>
+      <c r="AP17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
